--- a/EXPORT_FILES/ВУНЦ=П8_ВС-24.xlsx
+++ b/EXPORT_FILES/ВУНЦ=П8_ВС-24.xlsx
@@ -5858,10 +5858,10 @@
       </c>
       <c r="B15" s="45"/>
       <c r="C15" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="21">
         <f>SUM(F15:I15)</f>
@@ -5902,7 +5902,7 @@
         <f>SUM(J15,-K15)</f>
       </c>
       <c r="U15" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="29">
         <v>0</v>
@@ -5926,7 +5926,7 @@
       </c>
       <c r="B16" s="45"/>
       <c r="C16" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="23">
         <v>0</v>
@@ -6270,10 +6270,10 @@
       </c>
       <c r="B21" s="45"/>
       <c r="C21" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="21">
         <f ref="E21:E22" si="22" t="shared">SUM(F21:I21)</f>
@@ -6314,7 +6314,7 @@
         <f ref="T21:T23" si="25" t="shared">SUM(J21,-K21)</f>
       </c>
       <c r="U21" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" s="29">
         <v>0</v>
@@ -6682,10 +6682,10 @@
       </c>
       <c r="B27" s="45"/>
       <c r="C27" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="21">
         <f si="28" t="shared"/>
@@ -6726,10 +6726,10 @@
         <f si="31" t="shared"/>
       </c>
       <c r="U27" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="29">
         <v>0</v>
